--- a/SQL files/datawarehousing/facts structure.xlsx
+++ b/SQL files/datawarehousing/facts structure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>integration_id</t>
   </si>
@@ -62,22 +62,31 @@
     <t>*dept_no</t>
   </si>
   <si>
-    <t>Salaries(facts)</t>
-  </si>
-  <si>
-    <t>row_id</t>
-  </si>
-  <si>
     <t>Data Type</t>
   </si>
   <si>
-    <t>this is basically the date id which we will link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ç</t>
-  </si>
-  <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_WID</t>
+  </si>
+  <si>
+    <t>DEPARTMENT_WID</t>
+  </si>
+  <si>
+    <t>TITLE_WID</t>
+  </si>
+  <si>
+    <t>DEP_EMP_WID</t>
+  </si>
+  <si>
+    <t>DEP_MANAGER_WID</t>
+  </si>
+  <si>
+    <t>FROM_DATE_WID</t>
+  </si>
+  <si>
+    <t>TO_DATE_WID</t>
   </si>
 </sst>
 </file>
@@ -142,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -369,13 +378,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -384,27 +419,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -418,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -437,11 +477,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -723,17 +766,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:P22"/>
+  <dimension ref="D2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="46.7109375" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -747,7 +790,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
@@ -783,14 +826,9 @@
         <v>5</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -805,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="4:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -835,100 +873,112 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="4:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="18" t="s">
+    <row r="14" spans="4:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="4:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20" t="s">
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D16" s="23"/>
+      <c r="E16" s="20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="4:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="21"/>
-      <c r="E14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="F16" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
-      <c r="E15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="6"/>
-      <c r="E16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="6"/>
-      <c r="E17" s="11" t="s">
-        <v>4</v>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="23"/>
+      <c r="E17" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
-      <c r="E18" s="11" t="s">
-        <v>5</v>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="23"/>
+      <c r="E18" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="6"/>
-      <c r="E19" s="11" t="s">
-        <v>6</v>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="23"/>
+      <c r="E19" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="6"/>
-      <c r="E20" s="13" t="s">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="23"/>
+      <c r="E20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="23"/>
+      <c r="E21" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="23"/>
+      <c r="E22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="23"/>
+      <c r="E23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="23"/>
+      <c r="E24" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F24" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="6"/>
-      <c r="E21" s="13" t="s">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="23"/>
+      <c r="E25" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F25" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="15"/>
-      <c r="E22" s="16" t="s">
+    <row r="26" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="24"/>
+      <c r="E26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F26" s="19" t="s">
         <v>3</v>
       </c>
     </row>
